--- a/results/I2_N10_T100_C400_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C400_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1640.143003550326</v>
+        <v>30.16742239378572</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01899981498718262</v>
+        <v>0.01100015640258789</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.88540050229173</v>
+        <v>30.16742239378572</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.994093728955291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.771696776997118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1438.729999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -945,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -967,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1039,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32.61192465059682</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.69770569366315</v>
+        <v>36.73266487536227</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.83898166328444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>36.71579249669672</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30.60033324079214</v>
+        <v>32.01159140980468</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.52673167679941</v>
+        <v>32.31224998648503</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.94987179065701</v>
+        <v>34.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32.61192465059682</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>32.66758337047729</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>45</v>
+        <v>39.31314932600328</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.27819014430416</v>
+        <v>37.90090852477161</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,174 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>246.3300000000015</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1457,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>261.8049999999992</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="9">
@@ -1468,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>255.0599999999992</v>
+        <v>252.9750000000009</v>
       </c>
     </row>
     <row r="10">
@@ -1479,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>264.9700000000016</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1490,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>252.4949999999992</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1501,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>235.775</v>
+        <v>332.4450000000016</v>
       </c>
     </row>
     <row r="13">
@@ -1512,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>229.025</v>
+        <v>341.6700000000017</v>
       </c>
     </row>
     <row r="14">
@@ -1523,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.42</v>
+        <v>337.6900000000016</v>
       </c>
     </row>
     <row r="15">
@@ -1534,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>226.76</v>
+        <v>350.0150000000017</v>
       </c>
     </row>
     <row r="16">
@@ -1545,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.56</v>
+        <v>337.9200000000017</v>
       </c>
     </row>
     <row r="17">
@@ -1556,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="18">
@@ -1567,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="19">
@@ -1578,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="20">
@@ -1589,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="21">
@@ -1600,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="22">
@@ -1611,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>527.9099999999995</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1622,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>564.4199999999989</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1633,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>536.9049999999989</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1644,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>563.1199999999995</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1655,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>527.0099999999994</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1666,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.63000000000022</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="28">
@@ -1677,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>70.92000000000021</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="29">
@@ -1688,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>67.65500000000021</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="30">
@@ -1699,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.84500000000021</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="31">
@@ -1710,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>65.41000000000022</v>
+        <v>297.3649999999996</v>
       </c>
     </row>
     <row r="32">
@@ -1721,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1732,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1743,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1754,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1765,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1776,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>329.405</v>
+        <v>141.0250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1787,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>346.525</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="39">
@@ -1798,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>333.035</v>
+        <v>139.7050000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1809,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>354.74</v>
+        <v>150.4250000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1820,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>334.35</v>
+        <v>134.7700000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1831,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>455.28</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1842,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>484.3649999999994</v>
+        <v>159.2149999999988</v>
       </c>
     </row>
     <row r="44">
@@ -1853,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>454.5849999999994</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1864,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>479.165</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1875,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>446.195</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1886,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>136.3850000000007</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="48">
@@ -1897,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>144.2150000000007</v>
+        <v>247.1799999999993</v>
       </c>
     </row>
     <row r="49">
@@ -1908,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>141.7900000000007</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="50">
@@ -1919,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>145.8150000000007</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="51">
@@ -1930,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>136.6900000000007</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1941,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>387.355</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="53">
@@ -1952,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>405.205</v>
+        <v>58.67999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1963,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>394.765</v>
+        <v>61.72999999999927</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>415.395</v>
+        <v>60.65499999999928</v>
       </c>
     </row>
     <row r="56">
@@ -1985,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>387.265</v>
+        <v>52.91499999999927</v>
       </c>
     </row>
     <row r="57">
@@ -1996,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="58">
@@ -2007,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="59">
@@ -2018,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="60">
@@ -2029,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="61">
@@ -2040,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="62">
@@ -2051,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>527.9099999999995</v>
+        <v>332.4450000000016</v>
       </c>
     </row>
     <row r="63">
@@ -2062,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>564.4199999999989</v>
+        <v>341.6700000000017</v>
       </c>
     </row>
     <row r="64">
@@ -2073,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>536.9049999999989</v>
+        <v>337.6900000000016</v>
       </c>
     </row>
     <row r="65">
@@ -2084,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>563.1199999999995</v>
+        <v>350.0150000000017</v>
       </c>
     </row>
     <row r="66">
@@ -2095,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>527.0099999999994</v>
+        <v>337.9200000000017</v>
       </c>
     </row>
     <row r="67">
@@ -2106,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>235.775</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="68">
@@ -2117,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>229.025</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="69">
@@ -2128,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>213.42</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="70">
@@ -2139,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>226.76</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="71">
@@ -2150,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>221.56</v>
+        <v>297.3649999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>127.9099999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2263,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>164.4199999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2274,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.9049999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2285,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>163.1199999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2296,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>127.0099999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2618,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2629,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2640,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>4.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2651,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2662,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2838,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>11.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2849,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>14.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2860,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2871,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>11.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2882,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>13.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2951,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2976,138 +2753,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/I2_N10_T100_C400_0_P5_res.xlsx
+++ b/results/I2_N10_T100_C400_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.16742239378572</v>
+        <v>498.2172490991495</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.01900005340576172</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>30.13724909914953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.515920931989228</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.515920931989228</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>354.52</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>113.56</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -711,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -733,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -934,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1000,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.34885527085025</v>
+        <v>4.115339143470223</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>40.88466085652978</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.71579249669672</v>
+        <v>33.82001308898278</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.31224998648503</v>
+        <v>38.2235555991944</v>
       </c>
     </row>
     <row r="11">
@@ -1048,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.76592070603971</v>
+        <v>35.76988487963976</v>
       </c>
     </row>
     <row r="12">
@@ -1064,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.66758337047729</v>
+        <v>39.31314932600328</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.31314932600328</v>
+        <v>44.40058178851901</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.90090852477161</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,6 +1177,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>33.18499999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>27.85999999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>22.33999999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>25.93999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>28.75999999999942</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>72.6299999999995</v>
+        <v>436.485</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0549999999995</v>
+        <v>463.6</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>82.31999999999948</v>
+        <v>410.395</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>83.9549999999995</v>
+        <v>445.875</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.8149999999995</v>
+        <v>420.905</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>295.9199999999996</v>
+        <v>210.4450000000006</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>323.5</v>
+        <v>216.4200000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>294.2649999999996</v>
+        <v>188.54</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>311.1</v>
+        <v>207.4200000000006</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>297.3649999999996</v>
+        <v>196.4300000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1498,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>140.5649999999993</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>116.1299999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>134.7749999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>123.5399999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1608,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>140.5549999999989</v>
+        <v>363.8550000000005</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2149999999988</v>
+        <v>383.545</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>142.1399999999989</v>
+        <v>328.075</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.7249999999989</v>
+        <v>361.9200000000005</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>139.7449999999989</v>
+        <v>340.09</v>
       </c>
     </row>
     <row r="47">
@@ -1663,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>226.0399999999994</v>
+        <v>295.9300000000011</v>
       </c>
     </row>
     <row r="48">
@@ -1674,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>247.1799999999993</v>
+        <v>304.3850000000006</v>
       </c>
     </row>
     <row r="49">
@@ -1685,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>221.8549999999994</v>
+        <v>268.2550000000006</v>
       </c>
     </row>
     <row r="50">
@@ -1696,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>238.4549999999994</v>
+        <v>298.15</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>224.4749999999994</v>
+        <v>281.1600000000006</v>
       </c>
     </row>
     <row r="52">
@@ -1773,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>332.4450000000016</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>341.6700000000017</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>337.6900000000016</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>350.0150000000017</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>337.9200000000017</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>332.4450000000016</v>
+        <v>436.485</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>341.6700000000017</v>
+        <v>463.6</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>337.6900000000016</v>
+        <v>410.395</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>350.0150000000017</v>
+        <v>445.875</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>337.9200000000017</v>
+        <v>420.905</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>295.9199999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>323.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>294.2649999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>311.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>297.3649999999996</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>36.485</v>
       </c>
     </row>
     <row r="8">
@@ -2040,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="9">
@@ -2051,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.395</v>
       </c>
     </row>
     <row r="10">
@@ -2062,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>45.875</v>
       </c>
     </row>
     <row r="11">
@@ -2073,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>20.905</v>
       </c>
     </row>
     <row r="12">
@@ -2285,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13.735</v>
       </c>
     </row>
     <row r="13">
@@ -2296,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.245000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2307,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12.575</v>
       </c>
     </row>
     <row r="15">
@@ -2318,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="16">
@@ -2329,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>10.675</v>
       </c>
     </row>
     <row r="17">
@@ -2728,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2753,6 +2878,61 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
